--- a/formatos/Productos.xlsx
+++ b/formatos/Productos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\Tezlik\htdocs\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\tezliksoftware\htdocs\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87AE14DA-0BB0-4289-BB0D-D93597ACD7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5466FC51-60EC-4359-92C5-0813D3E98270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,12 +425,13 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
